--- a/old_database/crypto/rnaSample/rnaSample_2905.xlsx
+++ b/old_database/crypto/rnaSample/rnaSample_2905.xlsx
@@ -46,7 +46,7 @@
     <t>05.18.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_2905</t>
   </si>
 </sst>
 </file>
